--- a/biology/Médecine/Association_tunisienne_de_lutte_contre_les_maladies_sexuellement_transmissibles_et_le_sida/Association_tunisienne_de_lutte_contre_les_maladies_sexuellement_transmissibles_et_le_sida.xlsx
+++ b/biology/Médecine/Association_tunisienne_de_lutte_contre_les_maladies_sexuellement_transmissibles_et_le_sida/Association_tunisienne_de_lutte_contre_les_maladies_sexuellement_transmissibles_et_le_sida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association tunisienne de lutte contre les maladies sexuellement transmissibles et le sida (ATL MST SIDA) est une association tunisienne à but non lucratif. Fondée en 1990 à Sfax, elle est la première association de lutte active dans le pays contre le VIH/sida.
 </t>
@@ -511,10 +523,12 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’association ATL MST SIDA est fondée en 1990 à l’initiative d’un groupe de bénévoles, médecins universitaires relevant des quatre CHU de Sfax, Sousse, Monastir et Tunis[1]. La volonté des fondateurs est de contribuer à la réponse nationale face à l’endémie du sida à travers la mobilisation de la société civile. L'association se forme en vue d’éduquer la population à l’importance d’adopter des comportements préventifs et d’aider les personnes atteintes du sida[2].
-Le bureau national est basé à Sfax mais l’association a étendu son action et compte 17 sections réparties sur le territoire : Bizerte, Le Kef, Gabès, Gafsa, Jendouba, Kasserine, Kébili, Mahdia, Médenine, Nabeul, Sidi Bouzid, Sousse, Tataouine, Tozeur, Sfax et Tunis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’association ATL MST SIDA est fondée en 1990 à l’initiative d’un groupe de bénévoles, médecins universitaires relevant des quatre CHU de Sfax, Sousse, Monastir et Tunis. La volonté des fondateurs est de contribuer à la réponse nationale face à l’endémie du sida à travers la mobilisation de la société civile. L'association se forme en vue d’éduquer la population à l’importance d’adopter des comportements préventifs et d’aider les personnes atteintes du sida.
+Le bureau national est basé à Sfax mais l’association a étendu son action et compte 17 sections réparties sur le territoire : Bizerte, Le Kef, Gabès, Gafsa, Jendouba, Kasserine, Kébili, Mahdia, Médenine, Nabeul, Sidi Bouzid, Sousse, Tataouine, Tozeur, Sfax et Tunis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les objectifs de l'association sont de sensibiliser les populations aux risques, promouvoir les bonnes pratiques en matière de santé sexuelle et reproductive et lutter contre la discrimination à l’égard des personnes vivant avec le VIH[2]. Grâce à sa proximité avec les populations sur le terrain, l'ATL MST SIDA est en lien direct avec les besoins des populations et a ainsi progressivement étendu son champ d’action et renforcé quatre axes d’intervention :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les objectifs de l'association sont de sensibiliser les populations aux risques, promouvoir les bonnes pratiques en matière de santé sexuelle et reproductive et lutter contre la discrimination à l’égard des personnes vivant avec le VIH. Grâce à sa proximité avec les populations sur le terrain, l'ATL MST SIDA est en lien direct avec les besoins des populations et a ainsi progressivement étendu son champ d’action et renforcé quatre axes d’intervention :
 les bonnes pratiques en matière de santé sexuelle et reproductive ;
 les migrations, en offrant un espace d’informations, de rencontres et de formations aux étrangers en Tunisie ;
 l’insertion professionnelle des jeunes à travers un accompagnement personnalisé, des ateliers et des rencontres avec des professionnels ;
@@ -577,9 +593,11 @@
           <t>Président</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le président de l'ATL MST SIDA est le professeur Abdelmajid Zahaf. Originaire de Sfax, il est l'un des pionniers de la dermatologie en Tunisie et a reçu la médaille du mérite de l’Ordre des médecins de Tunisie (2008)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le président de l'ATL MST SIDA est le professeur Abdelmajid Zahaf. Originaire de Sfax, il est l'un des pionniers de la dermatologie en Tunisie et a reçu la médaille du mérite de l’Ordre des médecins de Tunisie (2008).
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Principes fondamentaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'ATL MST SIDA compte six grands principes fondamentaux qui sont au cœur de l'ensemble de son travail[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'ATL MST SIDA compte six grands principes fondamentaux qui sont au cœur de l'ensemble de son travail :
 l’accès universel à l’information et au droit à la santé ;
 une place importante accordée à la jeunesse ;
 le respect du droit des personnes vivant avec le VIH ;
